--- a/DATA_goal/Junction_Flooding_101.xlsx
+++ b/DATA_goal/Junction_Flooding_101.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41533.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>11.58</v>
+        <v>1.16</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.44</v>
+        <v>0.34</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>25.25</v>
+        <v>2.52</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>18.62</v>
+        <v>1.86</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>26.16</v>
+        <v>2.62</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>8.17</v>
+        <v>0.82</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>1</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.83</v>
+        <v>1.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.25</v>
+        <v>0.92</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>133.38</v>
+        <v>13.34</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>25.53</v>
+        <v>2.55</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>16.17</v>
+        <v>1.62</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.38</v>
+        <v>0.24</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>14.42</v>
+        <v>1.44</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.54</v>
+        <v>0.75</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>23.55</v>
+        <v>2.35</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.43</v>
+        <v>0.44</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>10.67</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41533.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.94</v>
+        <v>0.49</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.45</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15.6</v>
+        <v>1.56</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.68</v>
+        <v>1.17</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.4</v>
+        <v>0.54</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>22.39</v>
+        <v>2.24</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.73</v>
+        <v>0.87</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.57</v>
+        <v>0.36</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.98</v>
+        <v>0.5</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.78</v>
+        <v>0.78</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.2</v>
+        <v>0.52</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>78.52</v>
+        <v>7.85</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.16</v>
+        <v>1.02</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.13</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.31</v>
+        <v>0.43</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>20.83</v>
+        <v>2.08</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.51</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41533.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.83</v>
+        <v>1.78</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.2</v>
+        <v>1.32</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.35</v>
+        <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>39.06</v>
+        <v>3.91</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>31.46</v>
+        <v>3.15</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.95</v>
+        <v>1.39</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>51.77</v>
+        <v>5.18</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21.76</v>
+        <v>2.18</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.65</v>
+        <v>1.57</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.71</v>
+        <v>1.67</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.89</v>
+        <v>1.99</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>206.69</v>
+        <v>20.67</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>39.25</v>
+        <v>3.92</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>26.18</v>
+        <v>2.62</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.19</v>
+        <v>0.22</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>25.75</v>
+        <v>2.57</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.25</v>
+        <v>1.02</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.44</v>
+        <v>1.64</v>
       </c>
       <c r="AE4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>0.72</v>
       </c>
-      <c r="AF4" s="4" t="n">
-        <v>47.05</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>7.21</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>16.23</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41533.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.86</v>
+        <v>1.29</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.2</v>
+        <v>2.82</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.69</v>
+        <v>2.27</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>41.12</v>
+        <v>4.11</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.31</v>
+        <v>1.13</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.09</v>
+        <v>1.21</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.2</v>
+        <v>0.32</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.38</v>
+        <v>1.44</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147.19</v>
+        <v>14.72</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.45</v>
+        <v>2.84</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.96</v>
+        <v>1.9</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.87</v>
+        <v>1.99</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.41</v>
+        <v>0.74</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.69</v>
+        <v>0.87</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>37.54</v>
+        <v>3.75</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.2</v>
+        <v>0.52</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41533.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>15.08</v>
+        <v>1.51</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>33.02</v>
+        <v>3.3</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>26.79</v>
+        <v>2.68</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>46.3</v>
+        <v>4.63</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>18.38</v>
+        <v>1.84</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>11.96</v>
+        <v>1.2</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>14.11</v>
+        <v>1.41</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>16.87</v>
+        <v>1.69</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>173.51</v>
+        <v>17.35</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>33.22</v>
+        <v>3.32</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>22.25</v>
+        <v>2.23</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>11.67</v>
+        <v>1.17</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>22.52</v>
+        <v>2.25</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>13.92</v>
+        <v>1.39</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>42.06</v>
+        <v>4.21</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.13</v>
+        <v>0.61</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>13.71</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41533.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>19.8</v>
+        <v>1.98</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>14.81</v>
+        <v>1.48</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>43.26</v>
+        <v>4.33</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>35.34</v>
+        <v>3.53</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>15.55</v>
+        <v>1.55</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>60.15</v>
+        <v>6.01</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>24.08</v>
+        <v>2.41</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.71</v>
+        <v>1.07</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>15.84</v>
+        <v>1.58</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>17.35</v>
+        <v>1.74</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>18.45</v>
+        <v>1.85</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.95</v>
+        <v>0.49</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>15.56</v>
+        <v>1.56</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>22.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>229.6</v>
+        <v>22.96</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>43.52</v>
+        <v>4.35</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>14.37</v>
+        <v>1.44</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>29.28</v>
+        <v>2.93</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>15.36</v>
+        <v>1.54</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>29.39</v>
+        <v>2.94</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>12.69</v>
+        <v>1.27</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>13.2</v>
+        <v>1.32</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>18.24</v>
+        <v>1.82</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>54.64</v>
+        <v>5.46</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>17.96</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41533.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>21.93</v>
+        <v>2.19</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>16.42</v>
+        <v>1.64</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>47.86</v>
+        <v>4.79</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>39.2</v>
+        <v>3.92</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>17.23</v>
+        <v>1.72</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>67.39</v>
+        <v>6.74</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>26.64</v>
+        <v>2.66</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>17.61</v>
+        <v>1.76</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>19.2</v>
+        <v>1.92</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>20.4</v>
+        <v>2.04</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>17.22</v>
+        <v>1.72</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>24.55</v>
+        <v>2.46</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>254.78</v>
+        <v>25.48</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>48.16</v>
+        <v>4.82</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>15.89</v>
+        <v>1.59</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>32.45</v>
+        <v>3.25</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>17.02</v>
+        <v>1.7</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>32.8</v>
+        <v>3.28</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>14.04</v>
+        <v>1.4</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>20.19</v>
+        <v>2.02</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>61.24</v>
+        <v>6.12</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.98</v>
+        <v>0.9</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>19.87</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41533.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>16.17</v>
+        <v>1.62</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>12.1</v>
+        <v>1.21</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>35.32</v>
+        <v>3.53</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>28.88</v>
+        <v>2.89</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>51.58</v>
+        <v>5.16</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>19.66</v>
+        <v>1.97</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>12.95</v>
+        <v>1.3</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>14.17</v>
+        <v>1.42</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>15.06</v>
+        <v>1.51</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>12.71</v>
+        <v>1.27</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>18.11</v>
+        <v>1.81</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>10.68</v>
+        <v>1.07</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>186.11</v>
+        <v>18.61</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>35.59</v>
+        <v>3.56</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>23.96</v>
+        <v>2.4</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>12.55</v>
+        <v>1.26</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>24.79</v>
+        <v>2.48</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>9.17</v>
+        <v>0.92</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>10.78</v>
+        <v>1.08</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>46.91</v>
+        <v>4.69</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41533.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>5.11</v>
+        <v>0.51</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Q10" s="4" t="n">
         <v>0.46</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>25.13</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>4.62</v>
-      </c>
       <c r="R10" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>75.09999999999999</v>
+        <v>7.51</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>15.31</v>
+        <v>1.53</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>10.25</v>
+        <v>1.03</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>5.33</v>
+        <v>0.53</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>11.74</v>
+        <v>1.17</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>23.07</v>
+        <v>2.31</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_101.xlsx
+++ b/DATA_goal/Junction_Flooding_101.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,20 +443,20 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
@@ -465,17 +465,17 @@
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41533.34027777778</v>
+        <v>44782.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.16</v>
+        <v>0.46</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.78</v>
+        <v>0.39</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.52</v>
+        <v>0.57</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.86</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.14</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.62</v>
+        <v>0.71</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.43</v>
+        <v>0.33</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.82</v>
+        <v>0.26</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.08</v>
+        <v>0.5</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.22</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.36</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.84</v>
+        <v>0.17</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.06</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>13.34</v>
+        <v>3.73</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.55</v>
+        <v>0.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.85</v>
+        <v>0.43</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.62</v>
+        <v>0.52</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.84</v>
+        <v>0.17</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.04</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.44</v>
+        <v>0.3</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.18</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.7</v>
+        <v>0.17</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.05</v>
+        <v>0.37</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.35</v>
+        <v>0.52</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.44</v>
+        <v>0.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41533.34722222222</v>
+        <v>44782.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.7</v>
+        <v>1.38</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.49</v>
+        <v>1.05</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="R3" s="4" t="n">
+      <c r="Z3" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="X3" s="4" t="n">
+      <c r="AF3" s="4" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AG3" s="4" t="n">
         <v>0.53</v>
       </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0.27</v>
-      </c>
       <c r="AH3" s="4" t="n">
-        <v>0.65</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41533.35416666666</v>
+        <v>44782.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.78</v>
+        <v>0.12</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.32</v>
+        <v>0.1</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>3.91</v>
-      </c>
       <c r="F4" s="4" t="n">
-        <v>3.15</v>
+        <v>0.15</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.39</v>
+        <v>0.03</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.18</v>
+        <v>0.91</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.18</v>
+        <v>0.09</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.11</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.4</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.57</v>
+        <v>0.09</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.67</v>
+        <v>0.12</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.41</v>
+        <v>0.05</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.99</v>
+        <v>0.13</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.2</v>
+        <v>0.03</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="V4" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="S4" s="4" t="n">
+      <c r="W4" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>20.67</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AE4" s="4" t="n">
+      <c r="AF4" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AH4" s="4" t="n">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AH4" s="4" t="n">
-        <v>1.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41533.36111111111</v>
+        <v>44782.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.95</v>
+        <v>1.03</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.27</v>
+        <v>2.41</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.11</v>
+        <v>3.67</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="O5" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="X5" s="4" t="n">
         <v>1.02</v>
       </c>
-      <c r="P5" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
+      <c r="Y5" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>3.75</v>
+        <v>3.29</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41533.36805555555</v>
+        <v>44782.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.51</v>
+        <v>13.59</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.12</v>
+        <v>10.25</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.39</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.3</v>
+        <v>28.92</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.68</v>
+        <v>24.08</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.18</v>
+        <v>10.31</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.63</v>
+        <v>40.97</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.84</v>
+        <v>16.13</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>7.58</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.2</v>
+        <v>10.91</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.32</v>
+        <v>11.75</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.41</v>
+        <v>12.58</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.38</v>
+        <v>3.63</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.19</v>
+        <v>10.38</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.69</v>
+        <v>15.05</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.01</v>
+        <v>8.49</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.36</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>17.35</v>
+        <v>152.76</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.32</v>
+        <v>29.19</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.1</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.23</v>
+        <v>19.88</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.17</v>
+        <v>10.28</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.18</v>
+        <v>1.38</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.25</v>
+        <v>20.1</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.97</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.86</v>
+        <v>7.58</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.01</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.39</v>
+        <v>12.36</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.21</v>
+        <v>37.23</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.61</v>
+        <v>5.43</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41533.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41533.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>25.48</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41533.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>18.61</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41533.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41533.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>100.24</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>19.74</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>13.29</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>24.95</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>8.16</v>
+        <v>12.02</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_101.xlsx
+++ b/DATA_goal/Junction_Flooding_101.xlsx
@@ -463,14 +463,14 @@
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44782.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.95</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.06</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.97</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.59</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.97</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>3.73</v>
+        <v>37.26</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.16</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.66</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44782.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>28.26</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>152.49</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>28.66</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>19.74</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>1.38</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>15.25</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.14</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>1.81</v>
+        <v>18.15</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.11</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.42</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.18</v>
+        <v>31.83</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.82</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.45</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.09</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.4</v>
+        <v>4.03</v>
       </c>
       <c r="U4" s="4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>0.22</v>
       </c>
-      <c r="V4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.63</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.29</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.88</v>
+        <v>28.82</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.41</v>
+        <v>24.06</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.67</v>
+        <v>36.71</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.76</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.62</v>
       </c>
       <c r="N5" s="4" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.27</v>
+        <v>152.68</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.89</v>
+        <v>28.92</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.92</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.97</v>
+        <v>19.71</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.21</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.83</v>
+        <v>18.32</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.58</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.37</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.29</v>
+        <v>32.89</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.4</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_101.xlsx
+++ b/DATA_goal/Junction_Flooding_101.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>44782.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.639</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>3.95</v>
+        <v>3.949</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.68</v>
+        <v>5.682</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>5.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.4</v>
+        <v>1.404</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>7.06</v>
+        <v>7.057</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>3.27</v>
+        <v>3.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.97</v>
+        <v>2.974</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>2.59</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.72</v>
+        <v>3.719</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.97</v>
+        <v>4.974</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.21</v>
+        <v>2.211</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>2.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.58</v>
+        <v>3.582</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.71</v>
+        <v>1.706</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.61</v>
+        <v>0.605</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.024</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>37.26</v>
+        <v>37.258</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.6</v>
+        <v>6.598</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.25</v>
+        <v>4.255</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.16</v>
+        <v>5.158</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.72</v>
+        <v>1.722</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.377</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.04</v>
+        <v>3.036</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.79</v>
+        <v>1.789</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.74</v>
+        <v>1.745</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.9</v>
+        <v>5.904</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.66</v>
+        <v>3.659</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.98</v>
+        <v>3.978</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.2</v>
+        <v>5.202</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>2.83</v>
@@ -759,103 +759,103 @@
         <v>44782.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.82</v>
+        <v>13.816</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.51</v>
+        <v>10.515</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.289</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>28.26</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.86</v>
+        <v>23.863</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.85</v>
+        <v>9.853999999999999</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>35.4</v>
+        <v>35.399</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.79</v>
+        <v>15.793</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.9</v>
+        <v>7.903</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.82</v>
+        <v>10.818</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.81</v>
+        <v>11.814</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.92</v>
+        <v>12.922</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.99</v>
+        <v>3.989</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.14</v>
+        <v>10.144</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.91</v>
+        <v>14.914</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.23</v>
+        <v>8.231</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.3</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>152.49</v>
+        <v>152.492</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>28.66</v>
+        <v>28.657</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.21</v>
+        <v>10.208</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.74</v>
+        <v>19.737</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.92</v>
+        <v>9.920999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.38</v>
+        <v>1.377</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.15</v>
+        <v>18.149</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>8.387</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.56</v>
+        <v>7.559</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.11</v>
+        <v>10.114</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.42</v>
+        <v>12.424</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.327</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>31.83</v>
+        <v>31.825</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.28</v>
+        <v>5.282</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.82</v>
+        <v>11.823</v>
       </c>
     </row>
     <row r="4">
@@ -863,10 +863,10 @@
         <v>44782.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.2</v>
+        <v>1.196</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0</v>
@@ -875,91 +875,91 @@
         <v>1.45</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.54</v>
+        <v>1.536</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.292</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>9.09</v>
+        <v>9.093</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.871</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.12</v>
+        <v>1.119</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.869</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.16</v>
+        <v>1.163</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.505</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>1.26</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.27</v>
+        <v>0.268</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.323</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.03</v>
+        <v>4.027</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.23</v>
+        <v>2.226</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.982</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.93</v>
+        <v>1.934</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.59</v>
+        <v>0.592</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.098</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>4.24</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.517</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.59</v>
+        <v>0.592</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.37</v>
+        <v>1.372</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>0.92</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.796</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>8.863</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.218</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>11.98</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.08</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>40.97</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>152.76</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.88</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>37.23</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.02</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_101.xlsx
+++ b/DATA_goal/Junction_Flooding_101.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,9 +446,9 @@
     <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
@@ -465,7 +465,7 @@
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
@@ -967,103 +967,207 @@
         <v>44782.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.63</v>
+        <v>13.626</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.29</v>
+        <v>10.289</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.399</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.82</v>
+        <v>28.816</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.06</v>
+        <v>24.056</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.24</v>
+        <v>10.238</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>36.71</v>
+        <v>36.715</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.08</v>
+        <v>16.083</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.61</v>
+        <v>7.611</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.9</v>
+        <v>10.904</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.76</v>
+        <v>11.759</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.62</v>
+        <v>12.619</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.69</v>
+        <v>3.689</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.35</v>
+        <v>10.345</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.99</v>
+        <v>14.988</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>8.44</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>152.68</v>
+        <v>152.684</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.92</v>
+        <v>28.925</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.92</v>
+        <v>9.919</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.71</v>
+        <v>19.714</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.21</v>
+        <v>10.208</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.38</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.32</v>
+        <v>18.322</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>8.526</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.58</v>
+        <v>7.579</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.4</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.37</v>
+        <v>12.369</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>32.89</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.4</v>
+        <v>5.405</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.98</v>
+        <v>11.984</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>40.97</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>152.76</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>37.23</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>12.02</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_101.xlsx
+++ b/DATA_goal/Junction_Flooding_101.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,9 +446,9 @@
     <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
@@ -465,7 +465,7 @@
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
@@ -967,207 +967,103 @@
         <v>44782.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.626</v>
+        <v>13.63</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.289</v>
+        <v>10.29</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.399</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.816</v>
+        <v>28.82</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.056</v>
+        <v>24.06</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.238</v>
+        <v>10.24</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>36.715</v>
+        <v>36.71</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.083</v>
+        <v>16.08</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.611</v>
+        <v>7.61</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.904</v>
+        <v>10.9</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.759</v>
+        <v>11.76</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.619</v>
+        <v>12.62</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.689</v>
+        <v>3.69</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.345</v>
+        <v>10.35</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.988</v>
+        <v>14.99</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>8.44</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>152.684</v>
+        <v>152.68</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.925</v>
+        <v>28.92</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.919</v>
+        <v>9.92</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.714</v>
+        <v>19.71</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.208</v>
+        <v>10.21</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.38</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.322</v>
+        <v>18.32</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.526</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.579</v>
+        <v>7.58</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.398999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.369</v>
+        <v>12.37</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>32.89</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.405</v>
+        <v>5.4</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.984</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>28.92</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.08</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>40.97</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>152.76</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.88</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>37.23</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.02</v>
+        <v>11.98</v>
       </c>
     </row>
   </sheetData>
